--- a/biology/Zoologie/Brommella/Brommella.xlsx
+++ b/biology/Zoologie/Brommella/Brommella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brommella est un genre d'araignées aranéomorphes de la famille des Cicurinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brommella est un genre d'araignées aranéomorphes de la famille des Cicurinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 11/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 11/03/2024) :
 Brommella baiseensis Li, 2017
 Brommella bishopi (Chamberlin &amp; Gertsch, 1958)
 Brommella casseabri Li, 2017
@@ -594,10 +610,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Tullgren en 1948 dans les Dictynidae. Il est placé dans les Cicurinidae par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023[2].
-Pagomys[3] Chamberlin, 1948, préoccupé par Pagomys Gray, 1864 et Lathargenna[4] ont été placés en synonymie par Braun en 1964[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Tullgren en 1948 dans les Dictynidae. Il est placé dans les Cicurinidae par Gorneau, Crews, Cala-Riquelme, Montana, Spagna, Ballarin, Almeida-Silva et Esposito en 2023.
+Pagomys Chamberlin, 1948, préoccupé par Pagomys Gray, 1864 et Lathargenna ont été placés en synonymie par Braun en 1964.
 </t>
         </is>
       </c>
@@ -626,7 +644,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tullgren, 1948 : « Zwei bemerkenwerte Vertreter der Familie Dictynidae (Araneae). » Entomologisk Tidskrift, vol. 69, no 3, p. 155-160.</t>
         </is>
